--- a/data/Preparation/clean/comments_follow_up.xlsx
+++ b/data/Preparation/clean/comments_follow_up.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t xml:space="preserve">project</t>
   </si>
@@ -35,7 +35,10 @@
     <t xml:space="preserve">Assistente</t>
   </si>
   <si>
-    <t xml:space="preserve">135</t>
+    <t xml:space="preserve">490</t>
+  </si>
+  <si>
+    <t xml:space="preserve">96.7%</t>
   </si>
   <si>
     <t xml:space="preserve">100%</t>
@@ -44,10 +47,13 @@
     <t xml:space="preserve">Atitude</t>
   </si>
   <si>
-    <t xml:space="preserve">272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">97.4%</t>
+    <t xml:space="preserve">728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">96.3%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54%</t>
   </si>
   <si>
     <t xml:space="preserve">IT +</t>
@@ -56,9 +62,6 @@
     <t xml:space="preserve">63</t>
   </si>
   <si>
-    <t xml:space="preserve">49.2%</t>
-  </si>
-  <si>
     <t xml:space="preserve">Link</t>
   </si>
   <si>
@@ -98,9 +101,6 @@
     <t xml:space="preserve">61</t>
   </si>
   <si>
-    <t xml:space="preserve">52.5%</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sonho Rural</t>
   </si>
   <si>
@@ -122,10 +122,7 @@
     <t xml:space="preserve">Tech</t>
   </si>
   <si>
-    <t xml:space="preserve">215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">96.7%</t>
+    <t xml:space="preserve">214</t>
   </si>
   <si>
     <t xml:space="preserve">99.5%</t>
@@ -134,16 +131,16 @@
     <t xml:space="preserve">Total</t>
   </si>
   <si>
-    <t xml:space="preserve">1,542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">91.8%</t>
+    <t xml:space="preserve">2,352</t>
   </si>
   <si>
     <t xml:space="preserve">93.1%</t>
   </si>
   <si>
-    <t xml:space="preserve">94.6%</t>
+    <t xml:space="preserve">83.8%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82.2%</t>
   </si>
 </sst>
 </file>
@@ -509,130 +506,130 @@
         <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" t="s">
         <v>18</v>
-      </c>
-      <c r="F5" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E8" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="F8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -649,10 +646,10 @@
         <v>31</v>
       </c>
       <c r="E9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -666,10 +663,10 @@
         <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F10" t="s">
         <v>34</v>
@@ -683,36 +680,36 @@
         <v>36</v>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" t="s">
         <v>37</v>
       </c>
-      <c r="E11" t="s">
-        <v>38</v>
-      </c>
       <c r="F11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" t="s">
         <v>39</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="s">
         <v>40</v>
       </c>
-      <c r="C12" t="n">
-        <v>2</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>41</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>42</v>
-      </c>
-      <c r="F12" t="s">
-        <v>43</v>
       </c>
     </row>
   </sheetData>
